--- a/232/232_真理値表.xlsx
+++ b/232/232_真理値表.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055"/>
+    <workbookView xWindow="30880" yWindow="6820" windowWidth="20480" windowHeight="19040"/>
   </bookViews>
   <sheets>
     <sheet name="232" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>実験1.1</t>
     <rPh sb="0" eb="2">
@@ -131,6 +136,68 @@
     <t>実験1.3</t>
     <rPh sb="0" eb="2">
       <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>実験1.4</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2入力AND</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2入力OR</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単化前</t>
+    <rPh sb="0" eb="3">
+      <t>カンタンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単化後</t>
+    <rPh sb="0" eb="3">
+      <t>カンタンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +230,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,17 +274,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,9 +313,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,31 +621,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H69"/>
+  <dimension ref="B2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="28">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="28">
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -547,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -564,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -581,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -598,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -615,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -632,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -649,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="D11" s="2">
         <v>1</v>
       </c>
@@ -666,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -683,14 +798,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" ht="28">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -700,7 +815,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
@@ -717,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="D16" s="2">
         <v>0</v>
       </c>
@@ -734,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="2">
         <v>0</v>
       </c>
@@ -751,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="D18" s="2">
         <v>0</v>
       </c>
@@ -768,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="D19" s="2">
         <v>0</v>
       </c>
@@ -785,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="2">
         <v>1</v>
       </c>
@@ -802,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="D21" s="2">
         <v>1</v>
       </c>
@@ -819,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="D22" s="2">
         <v>1</v>
       </c>
@@ -836,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="D23" s="2">
         <v>1</v>
       </c>
@@ -853,14 +968,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" ht="28">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,20 +985,20 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="28">
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
@@ -898,7 +1013,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -913,7 +1028,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -928,7 +1043,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -943,7 +1058,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -958,7 +1073,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="D32" s="2">
         <v>1</v>
       </c>
@@ -973,7 +1088,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="D33" s="2">
         <v>1</v>
       </c>
@@ -988,7 +1103,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="D34" s="2">
         <v>1</v>
       </c>
@@ -1003,7 +1118,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="D35" s="2">
         <v>1</v>
       </c>
@@ -1018,71 +1133,71 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" ht="28">
       <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="3" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="3" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="C39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="3" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="3" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="43" spans="2:8" ht="28">
       <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -1092,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
@@ -1102,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>1</v>
@@ -1112,13 +1227,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" ht="28">
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1127,17 +1242,23 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="2:11" ht="28">
+      <c r="B49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1150,10 +1271,13 @@
       <c r="G50" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I50" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
       <c r="D51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1164,8 +1288,11 @@
       <c r="G51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
       <c r="D52" s="2">
         <v>0</v>
       </c>
@@ -1173,15 +1300,18 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
       <c r="D53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -1193,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="D54" s="2">
         <v>0</v>
       </c>
@@ -1201,13 +1331,13 @@
         <v>1</v>
       </c>
       <c r="F54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="D55" s="2">
         <v>1</v>
       </c>
@@ -1215,15 +1345,15 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="D56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -1235,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11">
       <c r="D57" s="2">
         <v>1</v>
       </c>
@@ -1243,15 +1373,15 @@
         <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11">
       <c r="D58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -1263,144 +1393,203 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="2:11" ht="28">
+      <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:11">
       <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11">
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11">
       <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
+    <row r="64" spans="2:11">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" ht="28">
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" ht="28">
+      <c r="B66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="28">
+      <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="D74" s="3"/>
+      <c r="E74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="D75" s="3"/>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="D76" s="3"/>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B73:G73"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B60:G60"/>
@@ -1413,7 +1602,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1423,10 +1617,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1436,9 +1635,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/232/232_真理値表.xlsx
+++ b/232/232_真理値表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30880" yWindow="6820" windowWidth="20480" windowHeight="19040"/>
+    <workbookView xWindow="30885" yWindow="6825" windowWidth="20475" windowHeight="19035"/>
   </bookViews>
   <sheets>
     <sheet name="232" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>実験1.1</t>
     <rPh sb="0" eb="2">
@@ -201,12 +201,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実験1.5</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +283,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,7 +359,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,7 +370,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,31 +693,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K78"/>
+  <dimension ref="B2:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28">
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28">
+    <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D5" s="2">
         <v>0</v>
       </c>
@@ -679,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D6" s="2">
         <v>0</v>
       </c>
@@ -696,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -713,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D8" s="2">
         <v>0</v>
       </c>
@@ -730,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -747,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -764,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D11" s="2">
         <v>1</v>
       </c>
@@ -781,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -798,14 +871,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="28">
+    <row r="14" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -815,7 +888,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
@@ -832,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D16" s="2">
         <v>0</v>
       </c>
@@ -849,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D17" s="2">
         <v>0</v>
       </c>
@@ -866,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D18" s="2">
         <v>0</v>
       </c>
@@ -883,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2">
         <v>0</v>
       </c>
@@ -900,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D20" s="2">
         <v>1</v>
       </c>
@@ -917,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D21" s="2">
         <v>1</v>
       </c>
@@ -934,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D22" s="2">
         <v>1</v>
       </c>
@@ -951,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D23" s="2">
         <v>1</v>
       </c>
@@ -968,14 +1041,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" ht="28">
+    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,20 +1058,20 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" ht="28">
+    <row r="26" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1086,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D28" s="2">
         <v>0</v>
       </c>
@@ -1028,7 +1101,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -1043,7 +1116,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -1058,7 +1131,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -1073,7 +1146,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D32" s="2">
         <v>1</v>
       </c>
@@ -1088,7 +1161,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D33" s="2">
         <v>1</v>
       </c>
@@ -1103,7 +1176,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D34" s="2">
         <v>1</v>
       </c>
@@ -1118,7 +1191,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D35" s="2">
         <v>1</v>
       </c>
@@ -1133,71 +1206,71 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="28">
+    <row r="37" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="C38" s="4" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="C39" s="4" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="C40" s="4" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="C41" s="4" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="43" spans="2:8" ht="28">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -1207,7 +1280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
@@ -1217,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>1</v>
@@ -1227,13 +1300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="28">
+    <row r="48" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1242,15 +1315,15 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="28">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="2:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="J49" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D51" s="2">
         <v>1</v>
       </c>
@@ -1292,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D52" s="2">
         <v>0</v>
       </c>
@@ -1309,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D53" s="2">
         <v>1</v>
       </c>
@@ -1323,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D54" s="2">
         <v>0</v>
       </c>
@@ -1337,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D55" s="2">
         <v>1</v>
       </c>
@@ -1351,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D56" s="2">
         <v>0</v>
       </c>
@@ -1365,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D57" s="2">
         <v>1</v>
       </c>
@@ -1379,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D58" s="2">
         <v>0</v>
       </c>
@@ -1393,17 +1466,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="28">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="B60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="2:11">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D61" s="2" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D62" s="2">
         <v>0</v>
       </c>
@@ -1423,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D63" s="2">
         <v>1</v>
       </c>
@@ -1433,13 +1506,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="2:7" ht="28">
+    <row r="65" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,17 +1521,17 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" ht="28">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
         <v>22</v>
@@ -1470,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D68" s="3"/>
       <c r="E68" s="3">
         <v>0</v>
@@ -1482,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D69" s="3"/>
       <c r="E69" s="3">
         <v>1</v>
@@ -1494,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D70" s="3"/>
       <c r="E70" s="3">
         <v>0</v>
@@ -1506,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D71" s="3"/>
       <c r="E71" s="3">
         <v>1</v>
@@ -1518,91 +1591,566 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="28">
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D74" s="3"/>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D75" s="3"/>
-      <c r="E75" s="7">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D76" s="3"/>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="E78" s="7">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7">
-        <v>1</v>
-      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" ht="24" x14ac:dyDescent="0.15">
+      <c r="B81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="I81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9">
+        <v>1</v>
+      </c>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="10">
+        <v>0</v>
+      </c>
+      <c r="L87" s="10">
+        <v>0</v>
+      </c>
+      <c r="M87" s="10">
+        <v>1</v>
+      </c>
+      <c r="N87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>1</v>
+      </c>
+      <c r="M89" s="11">
+        <v>1</v>
+      </c>
+      <c r="N89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="12">
+        <v>1</v>
+      </c>
+      <c r="L90" s="12">
+        <v>1</v>
+      </c>
+      <c r="M90" s="12">
+        <v>1</v>
+      </c>
+      <c r="N90" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C91" s="13">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="10">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="10">
+        <v>1</v>
+      </c>
+      <c r="G92" s="10">
+        <v>1</v>
+      </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <v>1</v>
+      </c>
+      <c r="F95" s="11">
+        <v>1</v>
+      </c>
+      <c r="G95" s="11">
+        <v>1</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C96" s="13">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>1</v>
+      </c>
+      <c r="G96" s="11">
+        <v>1</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C97" s="13">
+        <v>0</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1</v>
+      </c>
+      <c r="F97" s="12">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12">
+        <v>1</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12">
+        <v>1</v>
+      </c>
+      <c r="E98" s="12">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12">
+        <v>1</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B60:G60"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1617,7 +2165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,7 +2183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/232/232_真理値表.xlsx
+++ b/232/232_真理値表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>実験1.1</t>
     <rPh sb="0" eb="2">
@@ -337,6 +337,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>f = x'y'z + xy'z + y'z'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,39 +677,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +721,48 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1067,13 +1088,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1086,19 +1107,19 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1345,18 +1366,18 @@
       <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
@@ -1604,13 +1625,13 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1623,13 +1644,13 @@
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="1"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1640,19 +1661,19 @@
     </row>
     <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1881,13 +1902,13 @@
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1898,31 +1919,31 @@
     </row>
     <row r="39" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1932,14 +1953,14 @@
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1949,14 +1970,14 @@
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -1966,14 +1987,14 @@
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2000,13 +2021,13 @@
       <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2017,18 +2038,18 @@
     </row>
     <row r="46" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
@@ -2105,47 +2126,47 @@
       <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
@@ -2387,14 +2408,14 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -2493,47 +2514,47 @@
     </row>
     <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="12"/>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -2664,13 +2685,13 @@
     </row>
     <row r="79" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="12"/>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2820,54 +2841,54 @@
     </row>
     <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="12"/>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="28" t="s">
+      <c r="I89" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
     </row>
     <row r="90" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
@@ -3384,60 +3405,60 @@
     </row>
     <row r="109" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="3"/>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="3"/>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B111" s="12"/>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="28" t="s">
+      <c r="I111" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="37"/>
+      <c r="J111" s="53"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="53"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
     <row r="112" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
-      <c r="C112" s="40"/>
+      <c r="C112" s="29"/>
       <c r="D112" s="23" t="s">
         <v>18</v>
       </c>
@@ -3467,16 +3488,16 @@
     <row r="113" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="45">
-        <v>0</v>
-      </c>
-      <c r="E113" s="46">
-        <v>0</v>
-      </c>
-      <c r="F113" s="47">
-        <v>0</v>
-      </c>
-      <c r="G113" s="48">
+      <c r="D113" s="34">
+        <v>0</v>
+      </c>
+      <c r="E113" s="35">
+        <v>0</v>
+      </c>
+      <c r="F113" s="36">
+        <v>0</v>
+      </c>
+      <c r="G113" s="37">
         <v>1</v>
       </c>
       <c r="H113" s="4"/>
@@ -3496,16 +3517,16 @@
     <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="45">
-        <v>0</v>
-      </c>
-      <c r="E114" s="46">
-        <v>0</v>
-      </c>
-      <c r="F114" s="47">
-        <v>1</v>
-      </c>
-      <c r="G114" s="48">
+      <c r="D114" s="34">
+        <v>0</v>
+      </c>
+      <c r="E114" s="35">
+        <v>0</v>
+      </c>
+      <c r="F114" s="36">
+        <v>1</v>
+      </c>
+      <c r="G114" s="37">
         <v>1</v>
       </c>
       <c r="H114" s="4"/>
@@ -3525,16 +3546,16 @@
     <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
       <c r="C115" s="21"/>
-      <c r="D115" s="41">
-        <v>0</v>
-      </c>
-      <c r="E115" s="41">
-        <v>1</v>
-      </c>
-      <c r="F115" s="41">
-        <v>0</v>
-      </c>
-      <c r="G115" s="42">
+      <c r="D115" s="30">
+        <v>0</v>
+      </c>
+      <c r="E115" s="30">
+        <v>1</v>
+      </c>
+      <c r="F115" s="30">
+        <v>0</v>
+      </c>
+      <c r="G115" s="31">
         <v>0</v>
       </c>
       <c r="H115" s="4"/>
@@ -3554,16 +3575,16 @@
     <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
       <c r="C116" s="21"/>
-      <c r="D116" s="41">
-        <v>0</v>
-      </c>
-      <c r="E116" s="41">
-        <v>1</v>
-      </c>
-      <c r="F116" s="41">
-        <v>1</v>
-      </c>
-      <c r="G116" s="42">
+      <c r="D116" s="30">
+        <v>0</v>
+      </c>
+      <c r="E116" s="30">
+        <v>1</v>
+      </c>
+      <c r="F116" s="30">
+        <v>1</v>
+      </c>
+      <c r="G116" s="31">
         <v>0</v>
       </c>
       <c r="H116" s="4"/>
@@ -3583,16 +3604,16 @@
     <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="49">
-        <v>1</v>
-      </c>
-      <c r="E117" s="50">
-        <v>0</v>
-      </c>
-      <c r="F117" s="47">
-        <v>0</v>
-      </c>
-      <c r="G117" s="51">
+      <c r="D117" s="38">
+        <v>1</v>
+      </c>
+      <c r="E117" s="39">
+        <v>0</v>
+      </c>
+      <c r="F117" s="36">
+        <v>0</v>
+      </c>
+      <c r="G117" s="40">
         <v>1</v>
       </c>
       <c r="H117" s="4"/>
@@ -3606,16 +3627,16 @@
     <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="C118" s="21"/>
-      <c r="D118" s="49">
-        <v>1</v>
-      </c>
-      <c r="E118" s="50">
-        <v>0</v>
-      </c>
-      <c r="F118" s="47">
-        <v>1</v>
-      </c>
-      <c r="G118" s="51">
+      <c r="D118" s="38">
+        <v>1</v>
+      </c>
+      <c r="E118" s="39">
+        <v>0</v>
+      </c>
+      <c r="F118" s="36">
+        <v>1</v>
+      </c>
+      <c r="G118" s="40">
         <v>1</v>
       </c>
       <c r="H118" s="4"/>
@@ -3629,16 +3650,16 @@
     <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="52">
-        <v>1</v>
-      </c>
-      <c r="E119" s="52">
-        <v>1</v>
-      </c>
-      <c r="F119" s="47">
-        <v>0</v>
-      </c>
-      <c r="G119" s="53">
+      <c r="D119" s="41">
+        <v>1</v>
+      </c>
+      <c r="E119" s="41">
+        <v>1</v>
+      </c>
+      <c r="F119" s="36">
+        <v>0</v>
+      </c>
+      <c r="G119" s="42">
         <v>1</v>
       </c>
       <c r="H119" s="4"/>
@@ -3652,16 +3673,16 @@
     <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="21"/>
-      <c r="D120" s="52">
-        <v>1</v>
-      </c>
-      <c r="E120" s="52">
-        <v>1</v>
-      </c>
-      <c r="F120" s="47">
-        <v>1</v>
-      </c>
-      <c r="G120" s="53">
+      <c r="D120" s="41">
+        <v>1</v>
+      </c>
+      <c r="E120" s="41">
+        <v>1</v>
+      </c>
+      <c r="F120" s="36">
+        <v>1</v>
+      </c>
+      <c r="G120" s="42">
         <v>1</v>
       </c>
       <c r="H120" s="4"/>
@@ -3677,8 +3698,8 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -3692,8 +3713,8 @@
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -3707,8 +3728,8 @@
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -3722,8 +3743,8 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -3737,8 +3758,8 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -3752,8 +3773,8 @@
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -3767,8 +3788,8 @@
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -3782,8 +3803,8 @@
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -10139,8 +10160,8 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B64:G64"/>
     <mergeCell ref="C110:L110"/>
     <mergeCell ref="C111:G111"/>
     <mergeCell ref="I111:L111"/>
@@ -10153,8 +10174,6 @@
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="C72:G72"/>
     <mergeCell ref="C79:G79"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B64:G64"/>
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="C52:L52"/>
     <mergeCell ref="C2:G2"/>
@@ -10169,6 +10188,8 @@
     <mergeCell ref="C39:L39"/>
     <mergeCell ref="C46:L46"/>
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C45:G45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10183,10 +10204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N528"/>
+  <dimension ref="B2:N532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10202,55 +10223,55 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="C3" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
-      <c r="C4" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="C4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10279,16 +10300,18 @@
     <row r="6" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="41">
-        <v>0</v>
-      </c>
-      <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="41">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44"/>
+      <c r="D6" s="36">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <v>1</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10300,16 +10323,18 @@
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44"/>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -10321,16 +10346,18 @@
     <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
-        <v>1</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42"/>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -10342,16 +10369,18 @@
     <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42"/>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10363,16 +10392,18 @@
     <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="41">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44"/>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -10384,16 +10415,18 @@
     <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="41">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44"/>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -10405,16 +10438,18 @@
     <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="41">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41">
-        <v>1</v>
-      </c>
-      <c r="F12" s="41">
-        <v>1</v>
-      </c>
-      <c r="G12" s="42"/>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -10426,16 +10461,18 @@
     <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="41">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42"/>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -10460,16 +10497,14 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -10478,33 +10513,35 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+    <row r="16" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="21"/>
+      <c r="F16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
-      <c r="C17" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -10514,14 +10551,15 @@
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="43">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -10529,16 +10567,19 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+    <row r="19" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="43"/>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -10546,31 +10587,37 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-      <c r="C20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+    <row r="20" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="43"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10578,18 +10625,20 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="4"/>
+    <row r="22" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
+      <c r="H22" s="43"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10597,34 +10646,41 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="21"/>
-      <c r="F24" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10632,17 +10688,20 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="21"/>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="43"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10653,13 +10712,10 @@
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="21"/>
-      <c r="F26" s="21">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -10668,13 +10724,15 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+    <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -10683,185 +10741,158 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+    <row r="28" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="43"/>
+      <c r="F28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+    <row r="29" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="43"/>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="43"/>
+      <c r="F30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+    <row r="32" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+    <row r="33" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
+    <row r="34" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0</v>
+      <c r="D35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14">
@@ -10871,13 +10902,15 @@
         <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="15">
         <v>1</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -10887,20 +10920,22 @@
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="21">
-        <v>1</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>1</v>
+      <c r="D37" s="43">
+        <v>1</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0</v>
+      </c>
+      <c r="F37" s="43">
+        <v>0</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -10917,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
         <v>1</v>
@@ -10933,14 +10968,14 @@
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="21">
-        <v>1</v>
-      </c>
-      <c r="E39" s="21">
-        <v>1</v>
-      </c>
-      <c r="F39" s="21">
-        <v>1</v>
+      <c r="D39" s="43">
+        <v>1</v>
+      </c>
+      <c r="E39" s="43">
+        <v>1</v>
+      </c>
+      <c r="F39" s="43">
+        <v>0</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -10956,10 +10991,18 @@
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -10968,15 +11011,21 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="43">
+        <v>1</v>
+      </c>
+      <c r="E41" s="43">
+        <v>0</v>
+      </c>
+      <c r="F41" s="43">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -10985,15 +11034,20 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>5</v>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -11003,15 +11057,20 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>1</v>
+      <c r="D43" s="43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -11024,13 +11083,10 @@
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -11039,13 +11095,15 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+    <row r="45" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -11054,17 +11112,16 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+    <row r="46" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -11073,49 +11130,49 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
+    <row r="47" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B48" s="3"/>
-      <c r="C48" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="22"/>
-      <c r="C49" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+    <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -11124,19 +11181,17 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+    <row r="50" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D50" s="21"/>
-      <c r="E50" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -11145,61 +11200,49 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21">
-        <v>0</v>
-      </c>
-      <c r="F51" s="21">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+    <row r="51" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="3"/>
+      <c r="C51" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21">
-        <v>1</v>
-      </c>
-      <c r="F52" s="21">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+    <row r="52" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="3"/>
+      <c r="C52" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21">
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
+    <row r="53" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="22"/>
+      <c r="C53" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -11208,18 +11251,18 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="21">
-        <v>1</v>
-      </c>
-      <c r="F54" s="21">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>1</v>
+      <c r="E54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -11229,13 +11272,19 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -11244,15 +11293,19 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="22"/>
-      <c r="C56" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21">
+        <v>1</v>
+      </c>
+      <c r="F56" s="21">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -11261,18 +11314,18 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>21</v>
+      <c r="E57" s="21">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -11282,18 +11335,18 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" s="16">
-        <v>0</v>
+      <c r="E58" s="21">
+        <v>1</v>
+      </c>
+      <c r="F58" s="21">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -11306,16 +11359,10 @@
     <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0</v>
-      </c>
-      <c r="G59" s="16">
-        <v>0</v>
-      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -11324,19 +11371,15 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="16">
-        <v>0</v>
-      </c>
+    <row r="60" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="22"/>
+      <c r="C60" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -11345,18 +11388,18 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16">
-        <v>1</v>
+      <c r="D61" s="21"/>
+      <c r="E61" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -11366,13 +11409,19 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -11381,17 +11430,19 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -11400,213 +11451,165 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="3"/>
-      <c r="C64" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="3"/>
-      <c r="C65" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="22"/>
-      <c r="C66" s="28" t="s">
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="3"/>
+      <c r="C68" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B69" s="3"/>
+      <c r="C69" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="22"/>
+      <c r="C70" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="28" t="s">
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-    </row>
-    <row r="67" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
-      <c r="C67" s="23" t="s">
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+    </row>
+    <row r="71" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D71" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E71" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F71" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G71" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="23" t="s">
+      <c r="H71" s="11"/>
+      <c r="I71" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="23" t="s">
+      <c r="J71" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K71" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L67" s="24" t="s">
+      <c r="L71" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="4"/>
-      <c r="C68" s="21">
-        <v>0</v>
-      </c>
-      <c r="D68" s="21">
-        <v>0</v>
-      </c>
-      <c r="E68" s="21">
-        <v>0</v>
-      </c>
-      <c r="F68" s="21">
-        <v>0</v>
-      </c>
-      <c r="G68" s="13">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="21">
-        <v>0</v>
-      </c>
-      <c r="J68" s="21">
-        <v>0</v>
-      </c>
-      <c r="K68" s="21">
-        <v>0</v>
-      </c>
-      <c r="L68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B69" s="4"/>
-      <c r="C69" s="21">
-        <v>1</v>
-      </c>
-      <c r="D69" s="21">
-        <v>0</v>
-      </c>
-      <c r="E69" s="21">
-        <v>0</v>
-      </c>
-      <c r="F69" s="21">
-        <v>0</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="21">
-        <v>1</v>
-      </c>
-      <c r="J69" s="21">
-        <v>0</v>
-      </c>
-      <c r="K69" s="21">
-        <v>0</v>
-      </c>
-      <c r="L69" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B70" s="4"/>
-      <c r="C70" s="21">
-        <v>0</v>
-      </c>
-      <c r="D70" s="21">
-        <v>1</v>
-      </c>
-      <c r="E70" s="21">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21">
-        <v>0</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="21">
-        <v>0</v>
-      </c>
-      <c r="J70" s="21">
-        <v>1</v>
-      </c>
-      <c r="K70" s="21">
-        <v>0</v>
-      </c>
-      <c r="L70" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="4"/>
-      <c r="C71" s="21">
-        <v>1</v>
-      </c>
-      <c r="D71" s="21">
-        <v>1</v>
-      </c>
-      <c r="E71" s="21">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21">
-        <v>0</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="7">
-        <v>1</v>
-      </c>
-      <c r="J71" s="7">
-        <v>1</v>
-      </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-      <c r="L71" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="21">
         <v>0</v>
@@ -11615,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="21">
         <v>0</v>
@@ -11624,17 +11627,17 @@
         <v>0</v>
       </c>
       <c r="H72" s="4"/>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <v>0</v>
-      </c>
-      <c r="K72" s="8">
-        <v>1</v>
-      </c>
-      <c r="L72" s="17">
-        <v>1</v>
+      <c r="I72" s="21">
+        <v>0</v>
+      </c>
+      <c r="J72" s="21">
+        <v>0</v>
+      </c>
+      <c r="K72" s="21">
+        <v>0</v>
+      </c>
+      <c r="L72" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
@@ -11646,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="21">
         <v>0</v>
@@ -11662,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="13">
         <v>0</v>
@@ -11677,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="21">
         <v>0</v>
@@ -11686,17 +11689,17 @@
         <v>0</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-      <c r="J74" s="9">
-        <v>1</v>
-      </c>
-      <c r="K74" s="9">
-        <v>1</v>
-      </c>
-      <c r="L74" s="18">
-        <v>1</v>
+      <c r="I74" s="21">
+        <v>0</v>
+      </c>
+      <c r="J74" s="21">
+        <v>1</v>
+      </c>
+      <c r="K74" s="21">
+        <v>0</v>
+      </c>
+      <c r="L74" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
@@ -11708,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="21">
         <v>0</v>
@@ -11717,68 +11720,80 @@
         <v>0</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="10">
-        <v>1</v>
-      </c>
-      <c r="J75" s="10">
-        <v>1</v>
-      </c>
-      <c r="K75" s="10">
-        <v>1</v>
-      </c>
-      <c r="L75" s="19">
-        <v>1</v>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
-      <c r="C76" s="5">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>1</v>
-      </c>
-      <c r="G76" s="17">
-        <v>1</v>
+      <c r="C76" s="21">
+        <v>0</v>
+      </c>
+      <c r="D76" s="21">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
+        <v>1</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13">
+        <v>0</v>
       </c>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <v>1</v>
+      </c>
+      <c r="L76" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>1</v>
-      </c>
-      <c r="G77" s="17">
-        <v>1</v>
+      <c r="C77" s="21">
+        <v>1</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
+        <v>1</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
+      <c r="I77" s="21">
+        <v>1</v>
+      </c>
+      <c r="J77" s="21">
+        <v>0</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1</v>
+      </c>
+      <c r="L77" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
@@ -11789,21 +11804,27 @@
         <v>1</v>
       </c>
       <c r="E78" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="13">
         <v>0</v>
       </c>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
@@ -11814,37 +11835,43 @@
         <v>1</v>
       </c>
       <c r="E79" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="13">
         <v>0</v>
       </c>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
+      <c r="I79" s="10">
+        <v>1</v>
+      </c>
+      <c r="J79" s="10">
+        <v>1</v>
+      </c>
+      <c r="K79" s="10">
+        <v>1</v>
+      </c>
+      <c r="L79" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="5">
         <v>0</v>
       </c>
-      <c r="D80" s="9">
-        <v>0</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>1</v>
-      </c>
-      <c r="G80" s="18">
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="17">
         <v>1</v>
       </c>
       <c r="H80" s="4"/>
@@ -11860,16 +11887,16 @@
       <c r="C81" s="5">
         <v>1</v>
       </c>
-      <c r="D81" s="9">
-        <v>0</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
-      <c r="F81" s="9">
-        <v>1</v>
-      </c>
-      <c r="G81" s="18">
+      <c r="D81" s="8">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
         <v>1</v>
       </c>
       <c r="H81" s="4"/>
@@ -11882,20 +11909,20 @@
     </row>
     <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
-      <c r="C82" s="5">
-        <v>0</v>
-      </c>
-      <c r="D82" s="10">
-        <v>1</v>
-      </c>
-      <c r="E82" s="10">
-        <v>1</v>
-      </c>
-      <c r="F82" s="10">
-        <v>1</v>
-      </c>
-      <c r="G82" s="19">
-        <v>1</v>
+      <c r="C82" s="21">
+        <v>0</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1</v>
+      </c>
+      <c r="E82" s="21">
+        <v>0</v>
+      </c>
+      <c r="F82" s="21">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13">
+        <v>0</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -11907,20 +11934,20 @@
     </row>
     <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="10">
-        <v>1</v>
-      </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="19">
-        <v>1</v>
+      <c r="C83" s="21">
+        <v>1</v>
+      </c>
+      <c r="D83" s="21">
+        <v>1</v>
+      </c>
+      <c r="E83" s="21">
+        <v>0</v>
+      </c>
+      <c r="F83" s="21">
+        <v>1</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -11932,335 +11959,351 @@
     </row>
     <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-    </row>
-    <row r="85" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-    </row>
-    <row r="86" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="3"/>
-      <c r="C86" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-    </row>
-    <row r="87" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="3"/>
-      <c r="C87" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10">
+        <v>1</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="F87" s="10">
+        <v>1</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
     </row>
     <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B88" s="22"/>
-      <c r="C88" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>58</v>
-      </c>
+    <row r="89" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="4"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="45">
-        <v>0</v>
-      </c>
-      <c r="E90" s="46">
-        <v>0</v>
-      </c>
-      <c r="F90" s="47">
-        <v>0</v>
-      </c>
-      <c r="G90" s="48">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="9">
-        <v>0</v>
-      </c>
-      <c r="K90" s="9">
-        <v>0</v>
-      </c>
-      <c r="L90" s="18">
-        <v>1</v>
-      </c>
+    <row r="90" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="3"/>
+      <c r="C90" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B91" s="4"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="45">
-        <v>0</v>
-      </c>
-      <c r="E91" s="46">
-        <v>0</v>
-      </c>
-      <c r="F91" s="47">
-        <v>1</v>
-      </c>
-      <c r="G91" s="48">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="8">
-        <v>1</v>
-      </c>
-      <c r="K91" s="8">
-        <v>0</v>
-      </c>
-      <c r="L91" s="17">
-        <v>1</v>
-      </c>
+    <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="3"/>
+      <c r="C91" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B92" s="4"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="41">
-        <v>0</v>
-      </c>
-      <c r="E92" s="41">
-        <v>1</v>
-      </c>
-      <c r="F92" s="41">
-        <v>0</v>
-      </c>
-      <c r="G92" s="42">
-        <v>0</v>
-      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="21">
-        <v>0</v>
-      </c>
-      <c r="K92" s="21">
-        <v>1</v>
-      </c>
-      <c r="L92" s="13">
-        <v>0</v>
-      </c>
+      <c r="I92" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="53"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="41">
-        <v>0</v>
-      </c>
-      <c r="E93" s="41">
-        <v>1</v>
-      </c>
-      <c r="F93" s="41">
-        <v>1</v>
-      </c>
-      <c r="G93" s="42">
-        <v>0</v>
+      <c r="C93" s="29"/>
+      <c r="D93" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="10">
-        <v>1</v>
-      </c>
-      <c r="K93" s="10">
-        <v>1</v>
-      </c>
-      <c r="L93" s="19">
-        <v>1</v>
+      <c r="J93" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B94" s="4"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="49">
-        <v>1</v>
-      </c>
-      <c r="E94" s="50">
-        <v>0</v>
-      </c>
-      <c r="F94" s="47">
-        <v>0</v>
-      </c>
-      <c r="G94" s="51">
+      <c r="D94" s="34">
+        <v>0</v>
+      </c>
+      <c r="E94" s="35">
+        <v>0</v>
+      </c>
+      <c r="F94" s="36">
+        <v>0</v>
+      </c>
+      <c r="G94" s="37">
         <v>1</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
+      </c>
+      <c r="L94" s="18">
+        <v>1</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B95" s="4"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="49">
-        <v>1</v>
-      </c>
-      <c r="E95" s="50">
-        <v>0</v>
-      </c>
-      <c r="F95" s="47">
-        <v>1</v>
-      </c>
-      <c r="G95" s="51">
+      <c r="D95" s="34">
+        <v>0</v>
+      </c>
+      <c r="E95" s="35">
+        <v>0</v>
+      </c>
+      <c r="F95" s="36">
+        <v>1</v>
+      </c>
+      <c r="G95" s="37">
         <v>1</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="J95" s="8">
+        <v>1</v>
+      </c>
+      <c r="K95" s="8">
+        <v>0</v>
+      </c>
+      <c r="L95" s="17">
+        <v>1</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="52">
-        <v>1</v>
-      </c>
-      <c r="E96" s="52">
-        <v>1</v>
-      </c>
-      <c r="F96" s="47">
-        <v>0</v>
-      </c>
-      <c r="G96" s="53">
-        <v>1</v>
+      <c r="D96" s="30">
+        <v>0</v>
+      </c>
+      <c r="E96" s="30">
+        <v>1</v>
+      </c>
+      <c r="F96" s="30">
+        <v>0</v>
+      </c>
+      <c r="G96" s="31">
+        <v>0</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="J96" s="21">
+        <v>0</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1</v>
+      </c>
+      <c r="L96" s="13">
+        <v>0</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="52">
-        <v>1</v>
-      </c>
-      <c r="E97" s="52">
-        <v>1</v>
-      </c>
-      <c r="F97" s="47">
-        <v>1</v>
-      </c>
-      <c r="G97" s="53">
-        <v>1</v>
+      <c r="D97" s="30">
+        <v>0</v>
+      </c>
+      <c r="E97" s="30">
+        <v>1</v>
+      </c>
+      <c r="F97" s="30">
+        <v>1</v>
+      </c>
+      <c r="G97" s="31">
+        <v>0</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="J97" s="10">
+        <v>1</v>
+      </c>
+      <c r="K97" s="10">
+        <v>1</v>
+      </c>
+      <c r="L97" s="19">
+        <v>1</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="38">
+        <v>1</v>
+      </c>
+      <c r="E98" s="39">
+        <v>0</v>
+      </c>
+      <c r="F98" s="36">
+        <v>0</v>
+      </c>
+      <c r="G98" s="40">
+        <v>1</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -12271,11 +12314,19 @@
     </row>
     <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="38">
+        <v>1</v>
+      </c>
+      <c r="E99" s="39">
+        <v>0</v>
+      </c>
+      <c r="F99" s="36">
+        <v>1</v>
+      </c>
+      <c r="G99" s="40">
+        <v>1</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -12286,11 +12337,19 @@
     </row>
     <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="41">
+        <v>1</v>
+      </c>
+      <c r="E100" s="41">
+        <v>1</v>
+      </c>
+      <c r="F100" s="36">
+        <v>0</v>
+      </c>
+      <c r="G100" s="42">
+        <v>1</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -12301,11 +12360,19 @@
     </row>
     <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="41">
+        <v>1</v>
+      </c>
+      <c r="E101" s="41">
+        <v>1</v>
+      </c>
+      <c r="F101" s="36">
+        <v>1</v>
+      </c>
+      <c r="G101" s="42">
+        <v>1</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -12319,8 +12386,8 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -12334,8 +12401,8 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -12349,8 +12416,8 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -12364,8 +12431,8 @@
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -12376,11 +12443,11 @@
     </row>
     <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -12391,11 +12458,11 @@
     </row>
     <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -12406,11 +12473,11 @@
     </row>
     <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -12421,11 +12488,11 @@
     </row>
     <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -18719,35 +18786,90 @@
       <c r="M528" s="4"/>
       <c r="N528" s="4"/>
     </row>
+    <row r="529" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B529" s="4"/>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="4"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+      <c r="K529" s="4"/>
+      <c r="L529" s="4"/>
+      <c r="M529" s="4"/>
+      <c r="N529" s="4"/>
+    </row>
+    <row r="530" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B530" s="4"/>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+      <c r="K530" s="4"/>
+      <c r="L530" s="4"/>
+      <c r="M530" s="4"/>
+      <c r="N530" s="4"/>
+    </row>
+    <row r="531" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B531" s="4"/>
+      <c r="C531" s="4"/>
+      <c r="D531" s="4"/>
+      <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+      <c r="K531" s="4"/>
+      <c r="L531" s="4"/>
+      <c r="M531" s="4"/>
+      <c r="N531" s="4"/>
+    </row>
+    <row r="532" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="4"/>
+      <c r="K532" s="4"/>
+      <c r="L532" s="4"/>
+      <c r="M532" s="4"/>
+      <c r="N532" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="C86:L86"/>
-    <mergeCell ref="C87:L87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B41:G41"/>
+  <mergeCells count="22">
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="C69:L69"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/232/232_真理値表.xlsx
+++ b/232/232_真理値表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="30885" yWindow="6825" windowWidth="20475" windowHeight="16440" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
   <si>
     <t>実験1.1</t>
     <rPh sb="0" eb="2">
@@ -349,6 +349,49 @@
     <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実験2.2</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルノー図を用いた簡単化</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f = b' + a'b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f=a'b' + a'b + ab' +ab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f = xyz + x'y'z' + xy'z + x'yz'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -592,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +768,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -746,23 +804,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1088,13 +1137,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1107,19 +1156,19 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1366,18 +1415,18 @@
       <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
@@ -1625,13 +1674,13 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1644,13 +1693,13 @@
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="1"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1661,19 +1710,19 @@
     </row>
     <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1902,13 +1951,13 @@
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1919,31 +1968,31 @@
     </row>
     <row r="39" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1953,14 +2002,14 @@
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1970,14 +2019,14 @@
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -1987,14 +2036,14 @@
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2021,13 +2070,13 @@
       <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2038,18 +2087,18 @@
     </row>
     <row r="46" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
@@ -2126,47 +2175,47 @@
       <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
@@ -2408,14 +2457,14 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -2514,47 +2563,47 @@
     </row>
     <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="12"/>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -2685,13 +2734,13 @@
     </row>
     <row r="79" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="12"/>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2841,54 +2890,54 @@
     </row>
     <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="12"/>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="52" t="s">
+      <c r="I89" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
     </row>
     <row r="90" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
@@ -3405,54 +3454,54 @@
     </row>
     <row r="109" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="3"/>
-      <c r="C109" s="54" t="s">
+      <c r="C109" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="3"/>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B111" s="12"/>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="52" t="s">
+      <c r="I111" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="53"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
@@ -10160,20 +10209,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="C110:L110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="C70:L70"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="C87:L87"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C79:G79"/>
     <mergeCell ref="C51:K51"/>
     <mergeCell ref="C52:L52"/>
     <mergeCell ref="C2:G2"/>
@@ -10190,6 +10225,20 @@
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C45:G45"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="C110:L110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C79:G79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10204,10 +10253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N532"/>
+  <dimension ref="B2:N551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10223,55 +10272,55 @@
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10498,13 +10547,13 @@
     </row>
     <row r="15" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -10567,10 +10616,8 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="43"/>
       <c r="F19" s="43">
@@ -10587,77 +10634,68 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="32">
-        <v>0</v>
-      </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="32">
-        <v>1</v>
-      </c>
-      <c r="F23" s="30">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <v>1</v>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="4"/>
@@ -10667,17 +10705,17 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30">
+      <c r="D24" s="36"/>
+      <c r="E24" s="32">
         <v>0</v>
       </c>
       <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>1</v>
       </c>
       <c r="H24" s="43"/>
@@ -10691,14 +10729,14 @@
     <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30">
+      <c r="D25" s="36"/>
+      <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30">
-        <v>1</v>
-      </c>
-      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
         <v>1</v>
       </c>
       <c r="H25" s="43"/>
@@ -10709,14 +10747,20 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10724,16 +10768,20 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="4"/>
+    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="43"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -10741,16 +10789,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -10759,16 +10804,15 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="43"/>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
+    <row r="29" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+      <c r="C29" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10777,15 +10821,15 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="43"/>
-      <c r="F30" s="43">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
+      <c r="F30" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -10795,13 +10839,16 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <v>1</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10810,154 +10857,129 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="43"/>
+      <c r="F32" s="43">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+    <row r="35" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="14">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+    <row r="36" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="43">
-        <v>1</v>
-      </c>
-      <c r="E37" s="43">
-        <v>0</v>
-      </c>
-      <c r="F37" s="43">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="14">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33">
+        <v>1</v>
+      </c>
+      <c r="H38" s="44"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10965,22 +10987,20 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="43">
-        <v>1</v>
-      </c>
-      <c r="E39" s="43">
-        <v>1</v>
-      </c>
-      <c r="F39" s="43">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0</v>
+      </c>
+      <c r="G39" s="33">
+        <v>1</v>
+      </c>
+      <c r="H39" s="44"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -10988,22 +11008,20 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="15">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31">
+        <v>1</v>
+      </c>
+      <c r="H40" s="44"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -11011,22 +11029,20 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="43">
-        <v>1</v>
-      </c>
-      <c r="E41" s="43">
-        <v>0</v>
-      </c>
-      <c r="F41" s="43">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30">
+        <v>1</v>
+      </c>
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+      <c r="H41" s="44"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -11037,18 +11053,10 @@
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="15">
-        <v>1</v>
-      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -11057,21 +11065,15 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
+    <row r="43" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -11080,14 +11082,20 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="44"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -11095,16 +11103,20 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="4"/>
+    <row r="45" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="32">
+        <v>0</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0</v>
+      </c>
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="44"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -11112,17 +11124,20 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="4"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="30">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="44"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -11130,17 +11145,20 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="14">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="30">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1</v>
+      </c>
+      <c r="H47" s="44"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11148,17 +11166,20 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0</v>
+      </c>
+      <c r="H48" s="44"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -11169,10 +11190,10 @@
     <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -11182,68 +11203,80 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="4"/>
+      <c r="C51" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B52" s="3"/>
-      <c r="C52" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
+    <row r="52" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="22"/>
-      <c r="C53" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="4"/>
+    <row r="53" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="30">
+        <v>0</v>
+      </c>
+      <c r="E53" s="32">
+        <v>0</v>
+      </c>
+      <c r="F53" s="30">
+        <v>0</v>
+      </c>
+      <c r="G53" s="33">
+        <v>1</v>
+      </c>
+      <c r="H53" s="44"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -11251,20 +11284,22 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="4"/>
+      <c r="D54" s="30">
+        <v>1</v>
+      </c>
+      <c r="E54" s="32">
+        <v>0</v>
+      </c>
+      <c r="F54" s="30">
+        <v>0</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0</v>
+      </c>
+      <c r="H54" s="44"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -11272,20 +11307,22 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21">
-        <v>0</v>
-      </c>
-      <c r="F55" s="21">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4"/>
+      <c r="D55" s="30">
+        <v>0</v>
+      </c>
+      <c r="E55" s="30">
+        <v>1</v>
+      </c>
+      <c r="F55" s="30">
+        <v>0</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1</v>
+      </c>
+      <c r="H55" s="44"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -11293,20 +11330,22 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21">
-        <v>1</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4"/>
+      <c r="D56" s="30">
+        <v>1</v>
+      </c>
+      <c r="E56" s="30">
+        <v>1</v>
+      </c>
+      <c r="F56" s="30">
+        <v>0</v>
+      </c>
+      <c r="G56" s="31">
+        <v>0</v>
+      </c>
+      <c r="H56" s="44"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -11314,20 +11353,22 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4"/>
+      <c r="D57" s="30">
+        <v>0</v>
+      </c>
+      <c r="E57" s="32">
+        <v>0</v>
+      </c>
+      <c r="F57" s="30">
+        <v>1</v>
+      </c>
+      <c r="G57" s="33">
+        <v>0</v>
+      </c>
+      <c r="H57" s="44"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -11335,20 +11376,22 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21">
-        <v>1</v>
-      </c>
-      <c r="F58" s="21">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4"/>
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32">
+        <v>0</v>
+      </c>
+      <c r="F58" s="30">
+        <v>1</v>
+      </c>
+      <c r="G58" s="33">
+        <v>1</v>
+      </c>
+      <c r="H58" s="44"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -11356,14 +11399,22 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="D59" s="30">
+        <v>0</v>
+      </c>
+      <c r="E59" s="30">
+        <v>1</v>
+      </c>
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <v>0</v>
+      </c>
+      <c r="H59" s="44"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -11371,16 +11422,22 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="22"/>
-      <c r="C60" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="4"/>
+    <row r="60" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="30">
+        <v>1</v>
+      </c>
+      <c r="E60" s="30">
+        <v>1</v>
+      </c>
+      <c r="F60" s="30">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31">
+        <v>1</v>
+      </c>
+      <c r="H60" s="44"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -11388,19 +11445,13 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -11409,19 +11460,15 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6">
-        <v>0</v>
-      </c>
-      <c r="G62" s="16">
-        <v>0</v>
-      </c>
+    <row r="62" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="3"/>
+      <c r="C62" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -11430,20 +11477,20 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-      <c r="G63" s="16">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="44"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -11451,20 +11498,20 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="16">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="32">
+        <v>0</v>
+      </c>
+      <c r="F64" s="30">
+        <v>0</v>
+      </c>
+      <c r="G64" s="33">
+        <v>1</v>
+      </c>
+      <c r="H64" s="44"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -11472,20 +11519,20 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="16">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="32">
+        <v>1</v>
+      </c>
+      <c r="F65" s="30">
+        <v>0</v>
+      </c>
+      <c r="G65" s="33">
+        <v>0</v>
+      </c>
+      <c r="H65" s="44"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -11493,14 +11540,20 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30">
+        <v>0</v>
+      </c>
+      <c r="F66" s="30">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>0</v>
+      </c>
+      <c r="H66" s="44"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -11508,18 +11561,20 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="4"/>
+    <row r="67" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30">
+        <v>1</v>
+      </c>
+      <c r="F67" s="30">
+        <v>1</v>
+      </c>
+      <c r="G67" s="31">
+        <v>1</v>
+      </c>
+      <c r="H67" s="44"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -11527,158 +11582,116 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="3"/>
-      <c r="C68" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
+    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
     <row r="69" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B69" s="3"/>
-      <c r="C69" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
+      <c r="B69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="22"/>
-      <c r="C70" s="52" t="s">
+    <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="3"/>
+      <c r="C70" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="3"/>
+      <c r="C71" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="22"/>
+      <c r="C72" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-    </row>
-    <row r="71" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
-      <c r="C71" s="23" t="s">
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="F73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="24" t="s">
+      <c r="G73" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="21">
-        <v>0</v>
-      </c>
-      <c r="J72" s="21">
-        <v>0</v>
-      </c>
-      <c r="K72" s="21">
-        <v>0</v>
-      </c>
-      <c r="L72" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="4"/>
-      <c r="C73" s="21">
-        <v>1</v>
-      </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
-        <v>0</v>
-      </c>
-      <c r="G73" s="13">
-        <v>0</v>
-      </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="21">
-        <v>1</v>
-      </c>
-      <c r="J73" s="21">
-        <v>0</v>
-      </c>
-      <c r="K73" s="21">
-        <v>0</v>
-      </c>
-      <c r="L73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
-        <v>1</v>
-      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="21">
         <v>0</v>
       </c>
@@ -11689,29 +11702,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="21">
-        <v>0</v>
-      </c>
-      <c r="J74" s="21">
-        <v>1</v>
-      </c>
-      <c r="K74" s="21">
-        <v>0</v>
-      </c>
-      <c r="L74" s="13">
-        <v>0</v>
-      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
-      <c r="C75" s="21">
-        <v>1</v>
-      </c>
-      <c r="D75" s="21">
-        <v>1</v>
-      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="21">
         <v>0</v>
@@ -11720,534 +11723,484 @@
         <v>0</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="7">
-        <v>1</v>
-      </c>
-      <c r="J75" s="7">
-        <v>1</v>
-      </c>
-      <c r="K75" s="7">
-        <v>0</v>
-      </c>
-      <c r="L75" s="20">
-        <v>0</v>
-      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21">
-        <v>0</v>
-      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="21"/>
       <c r="E76" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="13">
         <v>0</v>
       </c>
       <c r="H76" s="4"/>
-      <c r="I76" s="8">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <v>0</v>
-      </c>
-      <c r="K76" s="8">
-        <v>1</v>
-      </c>
-      <c r="L76" s="17">
-        <v>1</v>
-      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
-      <c r="C77" s="21">
-        <v>1</v>
-      </c>
-      <c r="D77" s="21">
-        <v>0</v>
-      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="21">
         <v>1</v>
       </c>
       <c r="F77" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="21">
-        <v>1</v>
-      </c>
-      <c r="J77" s="21">
-        <v>0</v>
-      </c>
-      <c r="K77" s="21">
-        <v>1</v>
-      </c>
-      <c r="L77" s="13">
-        <v>0</v>
-      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21">
-        <v>1</v>
-      </c>
-      <c r="E78" s="21">
-        <v>1</v>
-      </c>
-      <c r="F78" s="21">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="9">
-        <v>1</v>
-      </c>
-      <c r="K78" s="9">
-        <v>1</v>
-      </c>
-      <c r="L78" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B79" s="4"/>
-      <c r="C79" s="21">
-        <v>1</v>
-      </c>
-      <c r="D79" s="21">
-        <v>1</v>
-      </c>
-      <c r="E79" s="21">
-        <v>1</v>
-      </c>
-      <c r="F79" s="21">
-        <v>0</v>
-      </c>
-      <c r="G79" s="13">
-        <v>0</v>
-      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="22"/>
+      <c r="C79" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="10">
-        <v>1</v>
-      </c>
-      <c r="J79" s="10">
-        <v>1</v>
-      </c>
-      <c r="K79" s="10">
-        <v>1</v>
-      </c>
-      <c r="L79" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
-      <c r="C80" s="5">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8">
-        <v>0</v>
-      </c>
-      <c r="E80" s="8">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>1</v>
-      </c>
-      <c r="G80" s="17">
-        <v>1</v>
+      <c r="C80" s="4"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="8">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8">
-        <v>1</v>
-      </c>
-      <c r="G81" s="17">
-        <v>1</v>
+      <c r="C81" s="4"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
-      <c r="C82" s="21">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21">
-        <v>1</v>
-      </c>
-      <c r="E82" s="21">
-        <v>0</v>
-      </c>
-      <c r="F82" s="21">
-        <v>1</v>
-      </c>
-      <c r="G82" s="13">
+      <c r="C82" s="4"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="16">
         <v>0</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
     </row>
     <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
-      <c r="C83" s="21">
-        <v>1</v>
-      </c>
-      <c r="D83" s="21">
-        <v>1</v>
-      </c>
-      <c r="E83" s="21">
-        <v>0</v>
-      </c>
-      <c r="F83" s="21">
-        <v>1</v>
-      </c>
-      <c r="G83" s="13">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="16">
         <v>0</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
-      <c r="C84" s="5">
-        <v>0</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="16">
         <v>1</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
     </row>
     <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="9">
-        <v>0</v>
-      </c>
-      <c r="E85" s="9">
-        <v>1</v>
-      </c>
-      <c r="F85" s="9">
-        <v>1</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1</v>
-      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-    </row>
-    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B86" s="4"/>
-      <c r="C86" s="5">
-        <v>0</v>
-      </c>
-      <c r="D86" s="10">
-        <v>1</v>
-      </c>
-      <c r="E86" s="10">
-        <v>1</v>
-      </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="19">
-        <v>1</v>
-      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-    </row>
-    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B87" s="4"/>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="10">
-        <v>1</v>
-      </c>
-      <c r="E87" s="10">
-        <v>1</v>
-      </c>
-      <c r="F87" s="10">
-        <v>1</v>
-      </c>
-      <c r="G87" s="19">
-        <v>1</v>
-      </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-    </row>
-    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="3"/>
+      <c r="C87" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B88" s="3"/>
+      <c r="C88" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
+    <row r="89" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="22"/>
+      <c r="C89" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-    </row>
-    <row r="90" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="3"/>
-      <c r="C90" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-    </row>
-    <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="3"/>
-      <c r="C91" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
+      <c r="I89" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+    </row>
+    <row r="90" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+      <c r="C90" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="4"/>
+      <c r="C91" s="21">
+        <v>0</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="21">
+        <v>0</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="21">
+        <v>0</v>
+      </c>
+      <c r="J91" s="21">
+        <v>0</v>
+      </c>
+      <c r="K91" s="21">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B92" s="22"/>
-      <c r="C92" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="21">
+        <v>1</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="21">
+        <v>0</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
+        <v>0</v>
+      </c>
       <c r="H92" s="4"/>
-      <c r="I92" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-    </row>
-    <row r="93" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I92" s="21">
+        <v>1</v>
+      </c>
+      <c r="J92" s="21">
+        <v>0</v>
+      </c>
+      <c r="K92" s="21">
+        <v>0</v>
+      </c>
+      <c r="L92" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>58</v>
+      <c r="C93" s="21">
+        <v>0</v>
+      </c>
+      <c r="D93" s="21">
+        <v>1</v>
+      </c>
+      <c r="E93" s="21">
+        <v>0</v>
+      </c>
+      <c r="F93" s="21">
+        <v>0</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0</v>
       </c>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-    </row>
-    <row r="94" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I93" s="21">
+        <v>0</v>
+      </c>
+      <c r="J93" s="21">
+        <v>1</v>
+      </c>
+      <c r="K93" s="21">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B94" s="4"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="34">
-        <v>0</v>
-      </c>
-      <c r="E94" s="35">
-        <v>0</v>
-      </c>
-      <c r="F94" s="36">
-        <v>0</v>
-      </c>
-      <c r="G94" s="37">
-        <v>1</v>
+      <c r="C94" s="21">
+        <v>1</v>
+      </c>
+      <c r="D94" s="21">
+        <v>1</v>
+      </c>
+      <c r="E94" s="21">
+        <v>0</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13">
+        <v>0</v>
       </c>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="9">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
-        <v>1</v>
-      </c>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+      <c r="L94" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B95" s="4"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="34">
-        <v>0</v>
-      </c>
-      <c r="E95" s="35">
-        <v>0</v>
-      </c>
-      <c r="F95" s="36">
-        <v>1</v>
-      </c>
-      <c r="G95" s="37">
-        <v>1</v>
+      <c r="C95" s="21">
+        <v>0</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>1</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0</v>
       </c>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
       <c r="J95" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="17">
         <v>1</v>
       </c>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
     </row>
     <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="30">
-        <v>0</v>
-      </c>
-      <c r="E96" s="30">
-        <v>1</v>
-      </c>
-      <c r="F96" s="30">
-        <v>0</v>
-      </c>
-      <c r="G96" s="31">
+      <c r="C96" s="21">
+        <v>1</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>1</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13">
         <v>0</v>
       </c>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="21">
+        <v>1</v>
+      </c>
       <c r="J96" s="21">
         <v>0</v>
       </c>
@@ -12257,212 +12210,276 @@
       <c r="L96" s="13">
         <v>0</v>
       </c>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="30">
-        <v>0</v>
-      </c>
-      <c r="E97" s="30">
-        <v>1</v>
-      </c>
-      <c r="F97" s="30">
-        <v>1</v>
-      </c>
-      <c r="G97" s="31">
+      <c r="C97" s="21">
+        <v>0</v>
+      </c>
+      <c r="D97" s="21">
+        <v>1</v>
+      </c>
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="13">
         <v>0</v>
       </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="10">
-        <v>1</v>
-      </c>
-      <c r="K97" s="10">
-        <v>1</v>
-      </c>
-      <c r="L97" s="19">
-        <v>1</v>
-      </c>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9">
+        <v>1</v>
+      </c>
+      <c r="L97" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="38">
-        <v>1</v>
-      </c>
-      <c r="E98" s="39">
-        <v>0</v>
-      </c>
-      <c r="F98" s="36">
-        <v>0</v>
-      </c>
-      <c r="G98" s="40">
-        <v>1</v>
+      <c r="C98" s="21">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21">
+        <v>1</v>
+      </c>
+      <c r="E98" s="21">
+        <v>1</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
+      <c r="I98" s="10">
+        <v>1</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1</v>
+      </c>
+      <c r="L98" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="38">
-        <v>1</v>
-      </c>
-      <c r="E99" s="39">
-        <v>0</v>
-      </c>
-      <c r="F99" s="36">
-        <v>1</v>
-      </c>
-      <c r="G99" s="40">
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1</v>
+      </c>
+      <c r="G99" s="17">
         <v>1</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
     </row>
     <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="41">
-        <v>1</v>
-      </c>
-      <c r="E100" s="41">
-        <v>1</v>
-      </c>
-      <c r="F100" s="36">
-        <v>0</v>
-      </c>
-      <c r="G100" s="42">
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="17">
         <v>1</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
     </row>
     <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="41">
-        <v>1</v>
-      </c>
-      <c r="E101" s="41">
-        <v>1</v>
-      </c>
-      <c r="F101" s="36">
-        <v>1</v>
-      </c>
-      <c r="G101" s="42">
-        <v>1</v>
+      <c r="C101" s="21">
+        <v>0</v>
+      </c>
+      <c r="D101" s="21">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0</v>
+      </c>
+      <c r="F101" s="21">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
     </row>
     <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="C102" s="21">
+        <v>1</v>
+      </c>
+      <c r="D102" s="21">
+        <v>1</v>
+      </c>
+      <c r="E102" s="21">
+        <v>0</v>
+      </c>
+      <c r="F102" s="21">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
     </row>
     <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
     </row>
     <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
     </row>
     <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="10">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1</v>
+      </c>
+      <c r="F105" s="10">
+        <v>1</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
     </row>
     <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="D106" s="10">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1</v>
+      </c>
+      <c r="F106" s="10">
+        <v>1</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
     </row>
     <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -12471,13 +12488,17 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B108" s="4"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
+    <row r="108" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -12486,133 +12507,219 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B109" s="4"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
+    <row r="109" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="3"/>
+      <c r="C109" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+    <row r="110" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="3"/>
+      <c r="C110" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="I111" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="J112" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="34">
+        <v>0</v>
+      </c>
+      <c r="E113" s="35">
+        <v>0</v>
+      </c>
+      <c r="F113" s="36">
+        <v>0</v>
+      </c>
+      <c r="G113" s="37">
+        <v>1</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="18">
+        <v>1</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
     <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="34">
+        <v>0</v>
+      </c>
+      <c r="E114" s="35">
+        <v>0</v>
+      </c>
+      <c r="F114" s="36">
+        <v>1</v>
+      </c>
+      <c r="G114" s="37">
+        <v>1</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="J114" s="8">
+        <v>1</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0</v>
+      </c>
+      <c r="L114" s="17">
+        <v>1</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="30">
+        <v>0</v>
+      </c>
+      <c r="E115" s="30">
+        <v>1</v>
+      </c>
+      <c r="F115" s="30">
+        <v>0</v>
+      </c>
+      <c r="G115" s="31">
+        <v>0</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="J115" s="21">
+        <v>0</v>
+      </c>
+      <c r="K115" s="21">
+        <v>1</v>
+      </c>
+      <c r="L115" s="13">
+        <v>0</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="30">
+        <v>0</v>
+      </c>
+      <c r="E116" s="30">
+        <v>1</v>
+      </c>
+      <c r="F116" s="30">
+        <v>1</v>
+      </c>
+      <c r="G116" s="31">
+        <v>0</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="J116" s="10">
+        <v>1</v>
+      </c>
+      <c r="K116" s="10">
+        <v>1</v>
+      </c>
+      <c r="L116" s="19">
+        <v>1</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
     <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="38">
+        <v>1</v>
+      </c>
+      <c r="E117" s="39">
+        <v>0</v>
+      </c>
+      <c r="F117" s="36">
+        <v>0</v>
+      </c>
+      <c r="G117" s="40">
+        <v>1</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -12623,11 +12730,19 @@
     </row>
     <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="38">
+        <v>1</v>
+      </c>
+      <c r="E118" s="39">
+        <v>0</v>
+      </c>
+      <c r="F118" s="36">
+        <v>1</v>
+      </c>
+      <c r="G118" s="40">
+        <v>1</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -12638,11 +12753,19 @@
     </row>
     <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="41">
+        <v>1</v>
+      </c>
+      <c r="E119" s="41">
+        <v>1</v>
+      </c>
+      <c r="F119" s="36">
+        <v>0</v>
+      </c>
+      <c r="G119" s="42">
+        <v>1</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -12653,11 +12776,19 @@
     </row>
     <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="41">
+        <v>1</v>
+      </c>
+      <c r="E120" s="41">
+        <v>1</v>
+      </c>
+      <c r="F120" s="36">
+        <v>1</v>
+      </c>
+      <c r="G120" s="42">
+        <v>1</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -12668,11 +12799,11 @@
     </row>
     <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -12683,11 +12814,11 @@
     </row>
     <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -12698,11 +12829,11 @@
     </row>
     <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -12713,11 +12844,11 @@
     </row>
     <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -12728,11 +12859,11 @@
     </row>
     <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -12743,11 +12874,11 @@
     </row>
     <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -12758,11 +12889,11 @@
     </row>
     <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -12773,11 +12904,11 @@
     </row>
     <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -18846,30 +18977,319 @@
       <c r="M532" s="4"/>
       <c r="N532" s="4"/>
     </row>
+    <row r="533" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B533" s="4"/>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="4"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="4"/>
+      <c r="K533" s="4"/>
+      <c r="L533" s="4"/>
+      <c r="M533" s="4"/>
+      <c r="N533" s="4"/>
+    </row>
+    <row r="534" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B534" s="4"/>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="4"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="4"/>
+      <c r="K534" s="4"/>
+      <c r="L534" s="4"/>
+      <c r="M534" s="4"/>
+      <c r="N534" s="4"/>
+    </row>
+    <row r="535" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B535" s="4"/>
+      <c r="C535" s="4"/>
+      <c r="D535" s="4"/>
+      <c r="E535" s="4"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="4"/>
+      <c r="K535" s="4"/>
+      <c r="L535" s="4"/>
+      <c r="M535" s="4"/>
+      <c r="N535" s="4"/>
+    </row>
+    <row r="536" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B536" s="4"/>
+      <c r="C536" s="4"/>
+      <c r="D536" s="4"/>
+      <c r="E536" s="4"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="4"/>
+      <c r="K536" s="4"/>
+      <c r="L536" s="4"/>
+      <c r="M536" s="4"/>
+      <c r="N536" s="4"/>
+    </row>
+    <row r="537" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B537" s="4"/>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="4"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
+      <c r="I537" s="4"/>
+      <c r="J537" s="4"/>
+      <c r="K537" s="4"/>
+      <c r="L537" s="4"/>
+      <c r="M537" s="4"/>
+      <c r="N537" s="4"/>
+    </row>
+    <row r="538" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B538" s="4"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="4"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
+      <c r="I538" s="4"/>
+      <c r="J538" s="4"/>
+      <c r="K538" s="4"/>
+      <c r="L538" s="4"/>
+      <c r="M538" s="4"/>
+      <c r="N538" s="4"/>
+    </row>
+    <row r="539" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B539" s="4"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="4"/>
+      <c r="E539" s="4"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
+      <c r="I539" s="4"/>
+      <c r="J539" s="4"/>
+      <c r="K539" s="4"/>
+      <c r="L539" s="4"/>
+      <c r="M539" s="4"/>
+      <c r="N539" s="4"/>
+    </row>
+    <row r="540" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="4"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+      <c r="K540" s="4"/>
+      <c r="L540" s="4"/>
+      <c r="M540" s="4"/>
+      <c r="N540" s="4"/>
+    </row>
+    <row r="541" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
+      <c r="I541" s="4"/>
+      <c r="J541" s="4"/>
+      <c r="K541" s="4"/>
+      <c r="L541" s="4"/>
+      <c r="M541" s="4"/>
+      <c r="N541" s="4"/>
+    </row>
+    <row r="542" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
+      <c r="I542" s="4"/>
+      <c r="J542" s="4"/>
+      <c r="K542" s="4"/>
+      <c r="L542" s="4"/>
+      <c r="M542" s="4"/>
+      <c r="N542" s="4"/>
+    </row>
+    <row r="543" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="4"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
+      <c r="I543" s="4"/>
+      <c r="J543" s="4"/>
+      <c r="K543" s="4"/>
+      <c r="L543" s="4"/>
+      <c r="M543" s="4"/>
+      <c r="N543" s="4"/>
+    </row>
+    <row r="544" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="4"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
+      <c r="I544" s="4"/>
+      <c r="J544" s="4"/>
+      <c r="K544" s="4"/>
+      <c r="L544" s="4"/>
+      <c r="M544" s="4"/>
+      <c r="N544" s="4"/>
+    </row>
+    <row r="545" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
+      <c r="I545" s="4"/>
+      <c r="J545" s="4"/>
+      <c r="K545" s="4"/>
+      <c r="L545" s="4"/>
+      <c r="M545" s="4"/>
+      <c r="N545" s="4"/>
+    </row>
+    <row r="546" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
+      <c r="I546" s="4"/>
+      <c r="J546" s="4"/>
+      <c r="K546" s="4"/>
+      <c r="L546" s="4"/>
+      <c r="M546" s="4"/>
+      <c r="N546" s="4"/>
+    </row>
+    <row r="547" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
+      <c r="I547" s="4"/>
+      <c r="J547" s="4"/>
+      <c r="K547" s="4"/>
+      <c r="L547" s="4"/>
+      <c r="M547" s="4"/>
+      <c r="N547" s="4"/>
+    </row>
+    <row r="548" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="4"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
+      <c r="I548" s="4"/>
+      <c r="J548" s="4"/>
+      <c r="K548" s="4"/>
+      <c r="L548" s="4"/>
+      <c r="M548" s="4"/>
+      <c r="N548" s="4"/>
+    </row>
+    <row r="549" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
+      <c r="K549" s="4"/>
+      <c r="L549" s="4"/>
+      <c r="M549" s="4"/>
+      <c r="N549" s="4"/>
+    </row>
+    <row r="550" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
+      <c r="K550" s="4"/>
+      <c r="L550" s="4"/>
+      <c r="M550" s="4"/>
+      <c r="N550" s="4"/>
+    </row>
+    <row r="551" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
+      <c r="K551" s="4"/>
+      <c r="L551" s="4"/>
+      <c r="M551" s="4"/>
+      <c r="N551" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="C69:L69"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C27:G27"/>
+  <mergeCells count="26">
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C87:L87"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C50:M50"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="C110:L110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="I111:L111"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/232/232_真理値表.xlsx
+++ b/232/232_真理値表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="30885" yWindow="6825" windowWidth="20475" windowHeight="16440" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>実験1.1</t>
     <rPh sb="0" eb="2">
@@ -392,6 +392,63 @@
     <t>z</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実験2.3</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回路規模の比較</t>
+    <rPh sb="0" eb="2">
+      <t>カイロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f = a'b'c'd + ab'c'd' + a'b'cd' + ab'cd'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単化前</t>
+    <rPh sb="0" eb="4">
+      <t>カンタンカマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単化後</t>
+    <rPh sb="0" eb="4">
+      <t>カンタンカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>and2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>or2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験2.4</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +579,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +607,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +840,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,13 +882,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,13 +1230,13 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1156,19 +1249,19 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1415,18 +1508,18 @@
       <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
@@ -1674,13 +1767,13 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1693,13 +1786,13 @@
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="1"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1710,19 +1803,19 @@
     </row>
     <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1951,13 +2044,13 @@
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1968,31 +2061,31 @@
     </row>
     <row r="39" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2002,14 +2095,14 @@
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2019,14 +2112,14 @@
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2036,14 +2129,14 @@
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2070,13 +2163,13 @@
       <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2087,18 +2180,18 @@
     </row>
     <row r="46" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
@@ -2175,47 +2268,47 @@
       <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
@@ -2457,14 +2550,14 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -2563,47 +2656,47 @@
     </row>
     <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="12"/>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -2734,13 +2827,13 @@
     </row>
     <row r="79" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="12"/>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2890,54 +2983,54 @@
     </row>
     <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="12"/>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="45" t="s">
+      <c r="I89" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
     </row>
     <row r="90" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
@@ -3454,54 +3547,54 @@
     </row>
     <row r="109" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="3"/>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="3"/>
-      <c r="C110" s="46" t="s">
+      <c r="C110" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B111" s="12"/>
-      <c r="C111" s="45" t="s">
+      <c r="C111" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="45" t="s">
+      <c r="I111" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-      <c r="L111" s="47"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
@@ -10253,10 +10346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N551"/>
+  <dimension ref="B2:P534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10266,61 +10359,62 @@
     <col min="4" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10547,13 +10641,13 @@
     </row>
     <row r="15" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -10639,7 +10733,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="44"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -10652,36 +10746,36 @@
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10806,13 +10900,13 @@
     </row>
     <row r="29" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10894,17 +10988,17 @@
       <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -10913,36 +11007,36 @@
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11066,14 +11160,14 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -11206,36 +11300,36 @@
       <c r="B50" s="3">
         <v>2</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11462,13 +11556,13 @@
     </row>
     <row r="62" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -11519,7 +11613,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="36"/>
@@ -11540,7 +11634,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="30"/>
@@ -11561,7 +11655,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="30"/>
@@ -11582,7 +11676,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -11597,889 +11691,954 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
-      <c r="C70" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
+      <c r="C70" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B71" s="3"/>
-      <c r="C71" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-    </row>
-    <row r="72" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="22"/>
-      <c r="C72" s="45" t="s">
+    <row r="71" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="46"/>
+      <c r="C71" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+    </row>
+    <row r="72" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="J72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P72" s="62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>5</v>
+      <c r="C73" s="61">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0</v>
+      </c>
+      <c r="E73" s="61">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-    </row>
-    <row r="74" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="18">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O73" s="47">
+        <v>12</v>
+      </c>
+      <c r="P73" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21">
-        <v>0</v>
-      </c>
-      <c r="G74" s="13">
-        <v>0</v>
+      <c r="C74" s="61">
+        <v>1</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="61">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="20">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O74" s="47">
+        <v>3</v>
+      </c>
+      <c r="P74" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21">
-        <v>1</v>
-      </c>
-      <c r="F75" s="21">
-        <v>0</v>
-      </c>
-      <c r="G75" s="13">
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="20">
         <v>0</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
+      <c r="L75" s="20">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O75" s="47">
+        <v>4</v>
+      </c>
+      <c r="P75" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="21">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13">
+      <c r="C76" s="7">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="20">
         <v>0</v>
       </c>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21">
-        <v>1</v>
-      </c>
-      <c r="F77" s="21">
-        <v>1</v>
-      </c>
-      <c r="G77" s="13">
+      <c r="C77" s="61">
+        <v>0</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
+      </c>
+      <c r="E77" s="61">
+        <v>1</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="18">
         <v>1</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="C78" s="61">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="61">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1</v>
+      </c>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-    </row>
-    <row r="79" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22"/>
-      <c r="C79" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B79" s="4"/>
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0</v>
+      </c>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>21</v>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="20">
+        <v>0</v>
       </c>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-    </row>
-    <row r="81" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>0</v>
-      </c>
-      <c r="G81" s="16">
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+      <c r="G81" s="20">
         <v>0</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="6">
-        <v>1</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="16">
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82" s="20">
         <v>0</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
     </row>
     <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-      <c r="G83" s="16">
+      <c r="C83" s="7">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="20">
         <v>0</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="6">
-        <v>1</v>
-      </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="16">
-        <v>1</v>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
+      <c r="G84" s="20">
+        <v>0</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
     </row>
     <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="C85" s="7">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-    </row>
-    <row r="86" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B86" s="4"/>
+      <c r="C86" s="7">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-    </row>
-    <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="3"/>
-      <c r="C87" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-    </row>
-    <row r="88" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B88" s="3"/>
-      <c r="C88" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-    </row>
-    <row r="89" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="22"/>
-      <c r="C89" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B87" s="4"/>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+    </row>
+    <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B88" s="4"/>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="20">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+    </row>
+    <row r="89" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="45" t="s">
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="3"/>
+      <c r="C92" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="3"/>
+      <c r="C93" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B94" s="22"/>
+      <c r="C94" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-    </row>
-    <row r="90" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
-      <c r="C90" s="23" t="s">
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K90" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="4"/>
-      <c r="C91" s="21">
-        <v>0</v>
-      </c>
-      <c r="D91" s="21">
-        <v>0</v>
-      </c>
-      <c r="E91" s="21">
-        <v>0</v>
-      </c>
-      <c r="F91" s="21">
-        <v>0</v>
-      </c>
-      <c r="G91" s="13">
-        <v>0</v>
-      </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="21">
-        <v>0</v>
-      </c>
-      <c r="J91" s="21">
-        <v>0</v>
-      </c>
-      <c r="K91" s="21">
-        <v>0</v>
-      </c>
-      <c r="L91" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B92" s="4"/>
-      <c r="C92" s="21">
-        <v>1</v>
-      </c>
-      <c r="D92" s="21">
-        <v>0</v>
-      </c>
-      <c r="E92" s="21">
-        <v>0</v>
-      </c>
-      <c r="F92" s="21">
-        <v>0</v>
-      </c>
-      <c r="G92" s="13">
-        <v>0</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="21">
-        <v>1</v>
-      </c>
-      <c r="J92" s="21">
-        <v>0</v>
-      </c>
-      <c r="K92" s="21">
-        <v>0</v>
-      </c>
-      <c r="L92" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B93" s="4"/>
-      <c r="C93" s="21">
-        <v>0</v>
-      </c>
-      <c r="D93" s="21">
-        <v>1</v>
-      </c>
-      <c r="E93" s="21">
-        <v>0</v>
-      </c>
-      <c r="F93" s="21">
-        <v>0</v>
-      </c>
-      <c r="G93" s="13">
-        <v>0</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="21">
-        <v>0</v>
-      </c>
-      <c r="J93" s="21">
-        <v>1</v>
-      </c>
-      <c r="K93" s="21">
-        <v>0</v>
-      </c>
-      <c r="L93" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B94" s="4"/>
-      <c r="C94" s="21">
-        <v>1</v>
-      </c>
-      <c r="D94" s="21">
-        <v>1</v>
-      </c>
-      <c r="E94" s="21">
-        <v>0</v>
-      </c>
-      <c r="F94" s="21">
-        <v>0</v>
-      </c>
-      <c r="G94" s="13">
-        <v>0</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="7">
-        <v>1</v>
-      </c>
-      <c r="J94" s="7">
-        <v>1</v>
-      </c>
-      <c r="K94" s="7">
-        <v>0</v>
-      </c>
-      <c r="L94" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B95" s="4"/>
-      <c r="C95" s="21">
-        <v>0</v>
-      </c>
-      <c r="D95" s="21">
-        <v>0</v>
-      </c>
-      <c r="E95" s="21">
-        <v>1</v>
-      </c>
-      <c r="F95" s="21">
-        <v>0</v>
-      </c>
-      <c r="G95" s="13">
-        <v>0</v>
+      <c r="E95" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H95" s="4"/>
-      <c r="I95" s="8">
-        <v>0</v>
-      </c>
-      <c r="J95" s="8">
-        <v>0</v>
-      </c>
-      <c r="K95" s="8">
-        <v>1</v>
-      </c>
-      <c r="L95" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="I95" s="4"/>
+      <c r="J95" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
-      <c r="C96" s="21">
-        <v>1</v>
-      </c>
-      <c r="D96" s="21">
-        <v>0</v>
-      </c>
-      <c r="E96" s="21">
-        <v>1</v>
-      </c>
-      <c r="F96" s="21">
-        <v>0</v>
-      </c>
-      <c r="G96" s="13">
-        <v>0</v>
+      <c r="C96" s="21"/>
+      <c r="D96" s="34">
+        <v>0</v>
+      </c>
+      <c r="E96" s="35">
+        <v>0</v>
+      </c>
+      <c r="F96" s="34">
+        <v>0</v>
+      </c>
+      <c r="G96" s="37">
+        <v>1</v>
       </c>
       <c r="H96" s="4"/>
-      <c r="I96" s="21">
-        <v>1</v>
-      </c>
-      <c r="J96" s="21">
-        <v>0</v>
-      </c>
-      <c r="K96" s="21">
-        <v>1</v>
-      </c>
-      <c r="L96" s="13">
-        <v>0</v>
-      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="34">
+        <v>0</v>
+      </c>
+      <c r="K96" s="35">
+        <v>0</v>
+      </c>
+      <c r="L96" s="34">
+        <v>0</v>
+      </c>
+      <c r="M96" s="37">
+        <v>1</v>
+      </c>
+      <c r="N96" s="4"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
-      <c r="C97" s="21">
-        <v>0</v>
-      </c>
-      <c r="D97" s="21">
-        <v>1</v>
-      </c>
-      <c r="E97" s="21">
-        <v>1</v>
-      </c>
-      <c r="F97" s="21">
-        <v>0</v>
-      </c>
-      <c r="G97" s="13">
+      <c r="C97" s="21"/>
+      <c r="D97" s="30">
+        <v>0</v>
+      </c>
+      <c r="E97" s="32">
+        <v>0</v>
+      </c>
+      <c r="F97" s="30">
+        <v>1</v>
+      </c>
+      <c r="G97" s="33">
         <v>0</v>
       </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="9">
-        <v>0</v>
-      </c>
-      <c r="J97" s="9">
-        <v>1</v>
-      </c>
-      <c r="K97" s="9">
-        <v>1</v>
-      </c>
-      <c r="L97" s="18">
-        <v>1</v>
-      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="38">
+        <v>1</v>
+      </c>
+      <c r="K97" s="39">
+        <v>0</v>
+      </c>
+      <c r="L97" s="38">
+        <v>0</v>
+      </c>
+      <c r="M97" s="40">
+        <v>1</v>
+      </c>
+      <c r="N97" s="4"/>
     </row>
     <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
-      <c r="C98" s="21">
-        <v>1</v>
-      </c>
-      <c r="D98" s="21">
-        <v>1</v>
-      </c>
-      <c r="E98" s="21">
-        <v>1</v>
-      </c>
-      <c r="F98" s="21">
-        <v>0</v>
-      </c>
-      <c r="G98" s="13">
-        <v>0</v>
+      <c r="C98" s="21"/>
+      <c r="D98" s="63">
+        <v>0</v>
+      </c>
+      <c r="E98" s="63">
+        <v>1</v>
+      </c>
+      <c r="F98" s="63">
+        <v>0</v>
+      </c>
+      <c r="G98" s="64">
+        <v>1</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="10">
-        <v>1</v>
-      </c>
-      <c r="J98" s="10">
-        <v>1</v>
-      </c>
-      <c r="K98" s="10">
-        <v>1</v>
-      </c>
-      <c r="L98" s="19">
-        <v>1</v>
-      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="63">
+        <v>0</v>
+      </c>
+      <c r="K98" s="63">
+        <v>1</v>
+      </c>
+      <c r="L98" s="63">
+        <v>0</v>
+      </c>
+      <c r="M98" s="64">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4"/>
     </row>
     <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
-      <c r="C99" s="5">
-        <v>0</v>
-      </c>
-      <c r="D99" s="8">
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <v>1</v>
-      </c>
-      <c r="G99" s="17">
-        <v>1</v>
+      <c r="C99" s="21"/>
+      <c r="D99" s="30">
+        <v>0</v>
+      </c>
+      <c r="E99" s="30">
+        <v>1</v>
+      </c>
+      <c r="F99" s="30">
+        <v>1</v>
+      </c>
+      <c r="G99" s="31">
+        <v>0</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
+      <c r="J99" s="41">
+        <v>1</v>
+      </c>
+      <c r="K99" s="41">
+        <v>1</v>
+      </c>
+      <c r="L99" s="41">
+        <v>0</v>
+      </c>
+      <c r="M99" s="42">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4"/>
     </row>
     <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
-      <c r="C100" s="5">
-        <v>1</v>
-      </c>
-      <c r="D100" s="8">
-        <v>0</v>
-      </c>
-      <c r="E100" s="8">
-        <v>0</v>
-      </c>
-      <c r="F100" s="8">
-        <v>1</v>
-      </c>
-      <c r="G100" s="17">
+      <c r="C100" s="21"/>
+      <c r="D100" s="38">
+        <v>1</v>
+      </c>
+      <c r="E100" s="39">
+        <v>0</v>
+      </c>
+      <c r="F100" s="38">
+        <v>0</v>
+      </c>
+      <c r="G100" s="40">
         <v>1</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
+      <c r="J100" s="30">
+        <v>0</v>
+      </c>
+      <c r="K100" s="32">
+        <v>0</v>
+      </c>
+      <c r="L100" s="30">
+        <v>1</v>
+      </c>
+      <c r="M100" s="33">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4"/>
     </row>
     <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
-      <c r="C101" s="21">
-        <v>0</v>
-      </c>
-      <c r="D101" s="21">
-        <v>1</v>
-      </c>
-      <c r="E101" s="21">
-        <v>0</v>
-      </c>
-      <c r="F101" s="21">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13">
+      <c r="C101" s="21"/>
+      <c r="D101" s="30">
+        <v>1</v>
+      </c>
+      <c r="E101" s="32">
+        <v>0</v>
+      </c>
+      <c r="F101" s="30">
+        <v>1</v>
+      </c>
+      <c r="G101" s="33">
         <v>0</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
+      <c r="J101" s="30">
+        <v>1</v>
+      </c>
+      <c r="K101" s="32">
+        <v>0</v>
+      </c>
+      <c r="L101" s="30">
+        <v>1</v>
+      </c>
+      <c r="M101" s="33">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4"/>
     </row>
     <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
-      <c r="C102" s="21">
-        <v>1</v>
-      </c>
-      <c r="D102" s="21">
-        <v>1</v>
-      </c>
-      <c r="E102" s="21">
-        <v>0</v>
-      </c>
-      <c r="F102" s="21">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13">
-        <v>0</v>
+      <c r="C102" s="21"/>
+      <c r="D102" s="41">
+        <v>1</v>
+      </c>
+      <c r="E102" s="41">
+        <v>1</v>
+      </c>
+      <c r="F102" s="41">
+        <v>0</v>
+      </c>
+      <c r="G102" s="42">
+        <v>1</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
+      <c r="J102" s="30">
+        <v>0</v>
+      </c>
+      <c r="K102" s="30">
+        <v>1</v>
+      </c>
+      <c r="L102" s="30">
+        <v>1</v>
+      </c>
+      <c r="M102" s="31">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4"/>
     </row>
     <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
-      <c r="C103" s="5">
-        <v>0</v>
-      </c>
-      <c r="D103" s="9">
-        <v>0</v>
-      </c>
-      <c r="E103" s="9">
-        <v>1</v>
-      </c>
-      <c r="F103" s="9">
-        <v>1</v>
-      </c>
-      <c r="G103" s="18">
+      <c r="C103" s="21"/>
+      <c r="D103" s="65">
+        <v>1</v>
+      </c>
+      <c r="E103" s="65">
+        <v>1</v>
+      </c>
+      <c r="F103" s="65">
+        <v>1</v>
+      </c>
+      <c r="G103" s="66">
         <v>1</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
+      <c r="J103" s="65">
+        <v>1</v>
+      </c>
+      <c r="K103" s="65">
+        <v>1</v>
+      </c>
+      <c r="L103" s="65">
+        <v>1</v>
+      </c>
+      <c r="M103" s="66">
+        <v>1</v>
+      </c>
+      <c r="N103" s="4"/>
     </row>
     <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
-      <c r="C104" s="5">
-        <v>1</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>1</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1</v>
-      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
     </row>
     <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
-      <c r="C105" s="5">
-        <v>0</v>
-      </c>
-      <c r="D105" s="10">
-        <v>1</v>
-      </c>
-      <c r="E105" s="10">
-        <v>1</v>
-      </c>
-      <c r="F105" s="10">
-        <v>1</v>
-      </c>
-      <c r="G105" s="19">
-        <v>1</v>
-      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
     </row>
     <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
-      <c r="C106" s="5">
-        <v>1</v>
-      </c>
-      <c r="D106" s="10">
-        <v>1</v>
-      </c>
-      <c r="E106" s="10">
-        <v>1</v>
-      </c>
-      <c r="F106" s="10">
-        <v>1</v>
-      </c>
-      <c r="G106" s="19">
-        <v>1</v>
-      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
     </row>
     <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -12488,17 +12647,13 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B108" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
+    <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B108" s="4"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -12507,219 +12662,133 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="3"/>
-      <c r="C109" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
+    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B109" s="4"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="3"/>
-      <c r="C110" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
+    <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B110" s="4"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B111" s="22"/>
-      <c r="C111" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-      <c r="L111" s="47"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B112" s="4"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G112" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K112" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="34">
-        <v>0</v>
-      </c>
-      <c r="E113" s="35">
-        <v>0</v>
-      </c>
-      <c r="F113" s="36">
-        <v>0</v>
-      </c>
-      <c r="G113" s="37">
-        <v>1</v>
-      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="9">
-        <v>0</v>
-      </c>
-      <c r="K113" s="9">
-        <v>0</v>
-      </c>
-      <c r="L113" s="18">
-        <v>1</v>
-      </c>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
     <row r="114" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="34">
-        <v>0</v>
-      </c>
-      <c r="E114" s="35">
-        <v>0</v>
-      </c>
-      <c r="F114" s="36">
-        <v>1</v>
-      </c>
-      <c r="G114" s="37">
-        <v>1</v>
-      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="8">
-        <v>1</v>
-      </c>
-      <c r="K114" s="8">
-        <v>0</v>
-      </c>
-      <c r="L114" s="17">
-        <v>1</v>
-      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="30">
-        <v>0</v>
-      </c>
-      <c r="E115" s="30">
-        <v>1</v>
-      </c>
-      <c r="F115" s="30">
-        <v>0</v>
-      </c>
-      <c r="G115" s="31">
-        <v>0</v>
-      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="21">
-        <v>0</v>
-      </c>
-      <c r="K115" s="21">
-        <v>1</v>
-      </c>
-      <c r="L115" s="13">
-        <v>0</v>
-      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="30">
-        <v>0</v>
-      </c>
-      <c r="E116" s="30">
-        <v>1</v>
-      </c>
-      <c r="F116" s="30">
-        <v>1</v>
-      </c>
-      <c r="G116" s="31">
-        <v>0</v>
-      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="10">
-        <v>1</v>
-      </c>
-      <c r="K116" s="10">
-        <v>1</v>
-      </c>
-      <c r="L116" s="19">
-        <v>1</v>
-      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
     <row r="117" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="38">
-        <v>1</v>
-      </c>
-      <c r="E117" s="39">
-        <v>0</v>
-      </c>
-      <c r="F117" s="36">
-        <v>0</v>
-      </c>
-      <c r="G117" s="40">
-        <v>1</v>
-      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -12730,19 +12799,11 @@
     </row>
     <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="38">
-        <v>1</v>
-      </c>
-      <c r="E118" s="39">
-        <v>0</v>
-      </c>
-      <c r="F118" s="36">
-        <v>1</v>
-      </c>
-      <c r="G118" s="40">
-        <v>1</v>
-      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -12753,19 +12814,11 @@
     </row>
     <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="41">
-        <v>1</v>
-      </c>
-      <c r="E119" s="41">
-        <v>1</v>
-      </c>
-      <c r="F119" s="36">
-        <v>0</v>
-      </c>
-      <c r="G119" s="42">
-        <v>1</v>
-      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -12776,19 +12829,11 @@
     </row>
     <row r="120" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="41">
-        <v>1</v>
-      </c>
-      <c r="E120" s="41">
-        <v>1</v>
-      </c>
-      <c r="F120" s="36">
-        <v>1</v>
-      </c>
-      <c r="G120" s="42">
-        <v>1</v>
-      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -12799,11 +12844,11 @@
     </row>
     <row r="121" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -12814,11 +12859,11 @@
     </row>
     <row r="122" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B122" s="4"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -12829,11 +12874,11 @@
     </row>
     <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B123" s="4"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -12844,11 +12889,11 @@
     </row>
     <row r="124" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B124" s="4"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -12859,11 +12904,11 @@
     </row>
     <row r="125" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B125" s="4"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -12874,11 +12919,11 @@
     </row>
     <row r="126" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B126" s="4"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -12889,11 +12934,11 @@
     </row>
     <row r="127" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B127" s="4"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -12904,11 +12949,11 @@
     </row>
     <row r="128" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B128" s="4"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -19007,289 +19052,30 @@
       <c r="M534" s="4"/>
       <c r="N534" s="4"/>
     </row>
-    <row r="535" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B535" s="4"/>
-      <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
-      <c r="E535" s="4"/>
-      <c r="F535" s="4"/>
-      <c r="G535" s="4"/>
-      <c r="H535" s="4"/>
-      <c r="I535" s="4"/>
-      <c r="J535" s="4"/>
-      <c r="K535" s="4"/>
-      <c r="L535" s="4"/>
-      <c r="M535" s="4"/>
-      <c r="N535" s="4"/>
-    </row>
-    <row r="536" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B536" s="4"/>
-      <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
-      <c r="E536" s="4"/>
-      <c r="F536" s="4"/>
-      <c r="G536" s="4"/>
-      <c r="H536" s="4"/>
-      <c r="I536" s="4"/>
-      <c r="J536" s="4"/>
-      <c r="K536" s="4"/>
-      <c r="L536" s="4"/>
-      <c r="M536" s="4"/>
-      <c r="N536" s="4"/>
-    </row>
-    <row r="537" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
-      <c r="E537" s="4"/>
-      <c r="F537" s="4"/>
-      <c r="G537" s="4"/>
-      <c r="H537" s="4"/>
-      <c r="I537" s="4"/>
-      <c r="J537" s="4"/>
-      <c r="K537" s="4"/>
-      <c r="L537" s="4"/>
-      <c r="M537" s="4"/>
-      <c r="N537" s="4"/>
-    </row>
-    <row r="538" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
-      <c r="E538" s="4"/>
-      <c r="F538" s="4"/>
-      <c r="G538" s="4"/>
-      <c r="H538" s="4"/>
-      <c r="I538" s="4"/>
-      <c r="J538" s="4"/>
-      <c r="K538" s="4"/>
-      <c r="L538" s="4"/>
-      <c r="M538" s="4"/>
-      <c r="N538" s="4"/>
-    </row>
-    <row r="539" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
-      <c r="E539" s="4"/>
-      <c r="F539" s="4"/>
-      <c r="G539" s="4"/>
-      <c r="H539" s="4"/>
-      <c r="I539" s="4"/>
-      <c r="J539" s="4"/>
-      <c r="K539" s="4"/>
-      <c r="L539" s="4"/>
-      <c r="M539" s="4"/>
-      <c r="N539" s="4"/>
-    </row>
-    <row r="540" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
-      <c r="E540" s="4"/>
-      <c r="F540" s="4"/>
-      <c r="G540" s="4"/>
-      <c r="H540" s="4"/>
-      <c r="I540" s="4"/>
-      <c r="J540" s="4"/>
-      <c r="K540" s="4"/>
-      <c r="L540" s="4"/>
-      <c r="M540" s="4"/>
-      <c r="N540" s="4"/>
-    </row>
-    <row r="541" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
-      <c r="E541" s="4"/>
-      <c r="F541" s="4"/>
-      <c r="G541" s="4"/>
-      <c r="H541" s="4"/>
-      <c r="I541" s="4"/>
-      <c r="J541" s="4"/>
-      <c r="K541" s="4"/>
-      <c r="L541" s="4"/>
-      <c r="M541" s="4"/>
-      <c r="N541" s="4"/>
-    </row>
-    <row r="542" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
-      <c r="E542" s="4"/>
-      <c r="F542" s="4"/>
-      <c r="G542" s="4"/>
-      <c r="H542" s="4"/>
-      <c r="I542" s="4"/>
-      <c r="J542" s="4"/>
-      <c r="K542" s="4"/>
-      <c r="L542" s="4"/>
-      <c r="M542" s="4"/>
-      <c r="N542" s="4"/>
-    </row>
-    <row r="543" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
-      <c r="E543" s="4"/>
-      <c r="F543" s="4"/>
-      <c r="G543" s="4"/>
-      <c r="H543" s="4"/>
-      <c r="I543" s="4"/>
-      <c r="J543" s="4"/>
-      <c r="K543" s="4"/>
-      <c r="L543" s="4"/>
-      <c r="M543" s="4"/>
-      <c r="N543" s="4"/>
-    </row>
-    <row r="544" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
-      <c r="E544" s="4"/>
-      <c r="F544" s="4"/>
-      <c r="G544" s="4"/>
-      <c r="H544" s="4"/>
-      <c r="I544" s="4"/>
-      <c r="J544" s="4"/>
-      <c r="K544" s="4"/>
-      <c r="L544" s="4"/>
-      <c r="M544" s="4"/>
-      <c r="N544" s="4"/>
-    </row>
-    <row r="545" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
-      <c r="E545" s="4"/>
-      <c r="F545" s="4"/>
-      <c r="G545" s="4"/>
-      <c r="H545" s="4"/>
-      <c r="I545" s="4"/>
-      <c r="J545" s="4"/>
-      <c r="K545" s="4"/>
-      <c r="L545" s="4"/>
-      <c r="M545" s="4"/>
-      <c r="N545" s="4"/>
-    </row>
-    <row r="546" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
-      <c r="E546" s="4"/>
-      <c r="F546" s="4"/>
-      <c r="G546" s="4"/>
-      <c r="H546" s="4"/>
-      <c r="I546" s="4"/>
-      <c r="J546" s="4"/>
-      <c r="K546" s="4"/>
-      <c r="L546" s="4"/>
-      <c r="M546" s="4"/>
-      <c r="N546" s="4"/>
-    </row>
-    <row r="547" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
-      <c r="E547" s="4"/>
-      <c r="F547" s="4"/>
-      <c r="G547" s="4"/>
-      <c r="H547" s="4"/>
-      <c r="I547" s="4"/>
-      <c r="J547" s="4"/>
-      <c r="K547" s="4"/>
-      <c r="L547" s="4"/>
-      <c r="M547" s="4"/>
-      <c r="N547" s="4"/>
-    </row>
-    <row r="548" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
-      <c r="E548" s="4"/>
-      <c r="F548" s="4"/>
-      <c r="G548" s="4"/>
-      <c r="H548" s="4"/>
-      <c r="I548" s="4"/>
-      <c r="J548" s="4"/>
-      <c r="K548" s="4"/>
-      <c r="L548" s="4"/>
-      <c r="M548" s="4"/>
-      <c r="N548" s="4"/>
-    </row>
-    <row r="549" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="4"/>
-      <c r="G549" s="4"/>
-      <c r="H549" s="4"/>
-      <c r="I549" s="4"/>
-      <c r="J549" s="4"/>
-      <c r="K549" s="4"/>
-      <c r="L549" s="4"/>
-      <c r="M549" s="4"/>
-      <c r="N549" s="4"/>
-    </row>
-    <row r="550" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
-      <c r="F550" s="4"/>
-      <c r="G550" s="4"/>
-      <c r="H550" s="4"/>
-      <c r="I550" s="4"/>
-      <c r="J550" s="4"/>
-      <c r="K550" s="4"/>
-      <c r="L550" s="4"/>
-      <c r="M550" s="4"/>
-      <c r="N550" s="4"/>
-    </row>
-    <row r="551" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4"/>
-      <c r="F551" s="4"/>
-      <c r="G551" s="4"/>
-      <c r="H551" s="4"/>
-      <c r="I551" s="4"/>
-      <c r="J551" s="4"/>
-      <c r="K551" s="4"/>
-      <c r="L551" s="4"/>
-      <c r="M551" s="4"/>
-      <c r="N551" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="22">
+    <mergeCell ref="I71:L71"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C35:M35"/>
     <mergeCell ref="C36:M36"/>
     <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C88:L88"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C34:K34"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="C70:L70"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C87:L87"/>
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C50:M50"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="C110:L110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="C93:L93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="I94:L94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
